--- a/biology/Histoire de la zoologie et de la botanique/La_Mort_de_la_nature/La_Mort_de_la_nature.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/La_Mort_de_la_nature/La_Mort_de_la_nature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Mort de la nature (sous-titré Les Femmes, l'Écologie et la Révolution scientifique ; The Death of Nature en anglais) est un livre de l'historienne Carolyn Merchant paru en 1980 et traduit en français en 2021[1].
+La Mort de la nature (sous-titré Les Femmes, l'Écologie et la Révolution scientifique ; The Death of Nature en anglais) est un livre de l'historienne Carolyn Merchant paru en 1980 et traduit en français en 2021.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Sujet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'autrice démontre que le passage, historique, d'une conception de la Terre comme organisme vivant à la considérer comme une machine a été mobilisé en conséquence pour justifier la domination à la fois sur les femmes et la nature[2]. Par l'exploration des images et métaphores qui associent directement la nature aux femmes[3], et modifient le rapport à la science et la technologie, l'ouvrage rapporte que ce qui était autrefois un besoin d'exercer une contrainte s'est transformé en une autorisation de contrôle et d'exploitation[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'autrice démontre que le passage, historique, d'une conception de la Terre comme organisme vivant à la considérer comme une machine a été mobilisé en conséquence pour justifier la domination à la fois sur les femmes et la nature. Par l'exploration des images et métaphores qui associent directement la nature aux femmes, et modifient le rapport à la science et la technologie, l'ouvrage rapporte que ce qui était autrefois un besoin d'exercer une contrainte s'est transformé en une autorisation de contrôle et d'exploitation. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est l'un des premiers textes à analyser la révolution scientifique  dans une perspective croisée, mobilisant féminisme et  écologie[5]; et peut être considéré comme un ouvrage fondateur de la littérature féministe de la fin des années 1970[6].
-La Mort de la nature a contribué au développement de l'écoféminisme aux États-Unis dans les années 1980, aux côtés d'œuvres d'autrices telles que Margot Adler, Mary Daly, Susan Griffin, Charlene Spretnak et Starhawk[7]. Il a eu un impact notable dans les domaines de l'histoire de l'environnement, de la philosophie et du féminisme pour son « attention scientifique sans précédent » aux liens historiques entre la féminisation de la nature et la naturalisation des femmes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'un des premiers textes à analyser la révolution scientifique  dans une perspective croisée, mobilisant féminisme et  écologie; et peut être considéré comme un ouvrage fondateur de la littérature féministe de la fin des années 1970.
+La Mort de la nature a contribué au développement de l'écoféminisme aux États-Unis dans les années 1980, aux côtés d'œuvres d'autrices telles que Margot Adler, Mary Daly, Susan Griffin, Charlene Spretnak et Starhawk. Il a eu un impact notable dans les domaines de l'histoire de l'environnement, de la philosophie et du féminisme pour son « attention scientifique sans précédent » aux liens historiques entre la féminisation de la nature et la naturalisation des femmes.
 </t>
         </is>
       </c>
